--- a/jfire-sql/src/test/resources/test.xlsx
+++ b/jfire-sql/src/test/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\jfire\jfire-sql\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jfireframework\jfire-sql\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>userid</t>
   </si>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -461,7 +477,7 @@
     <col min="5" max="5" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +502,14 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,8 +528,14 @@
       <c r="G2">
         <v>75.23</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -523,8 +551,14 @@
       <c r="E3" s="1">
         <v>42066.508472222202</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,6 +573,12 @@
       </c>
       <c r="E4" s="1">
         <v>42066.508472222224</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/jfire-sql/src/test/resources/test.xlsx
+++ b/jfire-sql/src/test/resources/test.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -575,7 +575,7 @@
         <v>42066.508472222224</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
